--- a/REPORTES/Avance de ejecución - Enero.xlsx
+++ b/REPORTES/Avance de ejecución - Enero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\REPORTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E518B14-E346-4436-9D5F-A05B56E244BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894293F1-5593-4518-9A9B-7685FCC8FE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1 " sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Incidencias</t>
   </si>
@@ -133,14 +133,42 @@
     <t>HU_GP.GP.014 Ver Comprobante de Pago Bancario_v2</t>
   </si>
   <si>
-    <t>1 Cerrados - Revalidación</t>
+    <t xml:space="preserve">HU_GP.GP.002 Obtener Orden de Pago
+-CA 001: Gestionar generación de CPB 
+-CA 002: Envío de notificación del CPB al Administrado
+-CA 003: Gestionar errores de la Pasarela de Pagos.
+-CA 004: Reenviar solicitudes de CPB pendientes
+</t>
+  </si>
+  <si>
+    <t>1 Cerrados - Revalidación
+4 Pendientes</t>
+  </si>
+  <si>
+    <t>HU:GP.GP.014 Ver Comprobante de Pago Bancario
+-CA 001: Seleccionar “Imprimir CPB”
+-CA 002: Mostrar Comprobante de Pago generado</t>
+  </si>
+  <si>
+    <t>Tiempo de Analisis - Actualizacion de Casos</t>
+  </si>
+  <si>
+    <t>CP / INCIDENCIAS</t>
+  </si>
+  <si>
+    <t>1.2 ReporteIncidencias_CP2.0 - E3-IPS-Subsanacion2
+2.1 ReporteIncidencias_CP2.0 - E3-IPS-Subsanacion2</t>
+  </si>
+  <si>
+    <t>3 Devueltos
+8 cerrado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -670,39 +698,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,6 +741,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,80 +1112,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J15"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="72.875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" customWidth="1"/>
     <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="30" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="41" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34" t="s">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="19">
@@ -1166,14 +1197,14 @@
       <c r="E7" s="21">
         <v>0</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="31">
         <v>5</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
@@ -1204,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="13">
         <v>0</v>
@@ -1216,35 +1247,35 @@
         <v>1</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="185.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>11</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9">
-        <v>16</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="185.25">
-      <c r="A11" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -1262,95 +1293,213 @@
         <v>7</v>
       </c>
       <c r="G11" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <v>16</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="85.5">
-      <c r="A12" s="18" t="s">
+    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C13" s="8">
         <v>17</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="10">
         <v>0</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="42.75">
-      <c r="A13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="11">
-        <v>50</v>
-      </c>
-      <c r="E13" s="22">
-        <v>74</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11">
+        <v>50</v>
+      </c>
+      <c r="E14" s="22">
+        <v>74</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.5" thickBot="1">
-      <c r="A14" s="44" t="s">
+    <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="8">
+        <v>49</v>
+      </c>
+      <c r="D17" s="9">
+        <v>149</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8">
+        <v>49</v>
+      </c>
+      <c r="D18" s="9">
+        <v>149</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C19" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D19" s="36">
         <v>50</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E19" s="37">
         <v>74</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F19" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G19" s="38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="21" thickBot="1">
-      <c r="C15" s="37">
-        <f>SUM(C7:C14)</f>
-        <v>37</v>
-      </c>
-      <c r="D15" s="38">
-        <f>SUM(D7:D14)</f>
-        <v>132</v>
-      </c>
-      <c r="E15" s="39">
-        <f>SUM(E7:E14)</f>
-        <v>152</v>
-      </c>
-      <c r="F15" s="39">
-        <f>SUM(F7:F14)</f>
-        <v>11</v>
-      </c>
+    <row r="20" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="26">
+        <f>SUM(C7:C19)</f>
+        <v>145</v>
+      </c>
+      <c r="D20" s="27">
+        <f>SUM(D7:D19)</f>
+        <v>436</v>
+      </c>
+      <c r="E20" s="28">
+        <f>SUM(E7:E19)</f>
+        <v>158</v>
+      </c>
+      <c r="F20" s="28">
+        <f>SUM(F7:F19)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="6">
